--- a/biology/Médecine/Gundolf_Keil/Gundolf_Keil.xlsx
+++ b/biology/Médecine/Gundolf_Keil/Gundolf_Keil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gundolf Keil (né le 17 juillet 1934 à Wartha, arrondissement de Frankenstein-en-Silésie) est un historien de la littérature allemande et de la médecine. Il enseigne notamment de 1972 à 2003 à l'université de Wurtzbourg, où il est directeur de l'Institut d'histoire de la médecine.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gundolf Keil, fils du directeur commercial Walther Keil[1], étudie à l'école primaire de Rostock après son expulsion de Basse-Silésie, où il étudie également au lycée. En octobre 1950, il s'installe à Zurich et après avoir déménagé en République fédérale d'Allemagne en 1951, il entre d'abord au lycée d'Ettlingen, puis au lycée Hellenstein à Heidenheim an der Brenz, où il obtient son Abitur en février 1954[2]. Keil étudie la médecine, l'allemand, le folklore, la philologie classique et les géosciences à Heidelberg, Göttingen et Bonn. Après l'examen d'État de philologie en 1960, il travaille avec Gerhard Eis (de) avec la thèse Peter von Ulm. Enquêtes sur un mémorial de la vieille prose allemande spécialisée avec une édition critique du texte pour son doctorat. Il est assistant à Göttingen et à Bonn auprès de Gernot Rath (de) et Johannes Steudel (de). En 1968, il réussit l'examen médical d'état à Bonn et obtient son doctorat de médecine. La même année, il est nommé professeur de germanistique à l'université de Stockholm[3]. La leçon inaugurale traite du concept de littérature et de la recherche spécialisée en prose[4].
-Il obtient sa licence pour enseigner (venia legendi (de)) dans le domaine de l'histoire de la médecine[5] en 1971 à Fribourg auprès d'Eduard Seidler (de). Il prend ensuite temporairement le poste de directeur de l'Institut de Marbourg pour l'histoire de la médecine. Après avoir été nommé à la chaire de Wurtzbourg en mai 1972[6], il déménage à Wurtzbourg avec son épouse Anne-Marie Keil, puis est professeur titulaire à l'Université de Wurtzbourg de 1972 à 2002 tout en dirigeant l'institut pour l'histoire de médecine (initialement dans le bâtiment arrière au 6 Koellikerstraße, plus tard Oberen Neubergweg), du semestre d'été 2002 au semestre d'hiver 2003-2004 en tant que directeur par intérim[7]. Gundolf Keil est émérite depuis 2004. Son successeur à la chaire d'histoire de la médecine de l'Université de Wurtzbourg est Michael Stolberg (de) en 2004. Keil est membre de la Commission historique de Silésie (de)[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gundolf Keil, fils du directeur commercial Walther Keil, étudie à l'école primaire de Rostock après son expulsion de Basse-Silésie, où il étudie également au lycée. En octobre 1950, il s'installe à Zurich et après avoir déménagé en République fédérale d'Allemagne en 1951, il entre d'abord au lycée d'Ettlingen, puis au lycée Hellenstein à Heidenheim an der Brenz, où il obtient son Abitur en février 1954. Keil étudie la médecine, l'allemand, le folklore, la philologie classique et les géosciences à Heidelberg, Göttingen et Bonn. Après l'examen d'État de philologie en 1960, il travaille avec Gerhard Eis (de) avec la thèse Peter von Ulm. Enquêtes sur un mémorial de la vieille prose allemande spécialisée avec une édition critique du texte pour son doctorat. Il est assistant à Göttingen et à Bonn auprès de Gernot Rath (de) et Johannes Steudel (de). En 1968, il réussit l'examen médical d'état à Bonn et obtient son doctorat de médecine. La même année, il est nommé professeur de germanistique à l'université de Stockholm. La leçon inaugurale traite du concept de littérature et de la recherche spécialisée en prose.
+Il obtient sa licence pour enseigner (venia legendi (de)) dans le domaine de l'histoire de la médecine en 1971 à Fribourg auprès d'Eduard Seidler (de). Il prend ensuite temporairement le poste de directeur de l'Institut de Marbourg pour l'histoire de la médecine. Après avoir été nommé à la chaire de Wurtzbourg en mai 1972, il déménage à Wurtzbourg avec son épouse Anne-Marie Keil, puis est professeur titulaire à l'Université de Wurtzbourg de 1972 à 2002 tout en dirigeant l'institut pour l'histoire de médecine (initialement dans le bâtiment arrière au 6 Koellikerstraße, plus tard Oberen Neubergweg), du semestre d'été 2002 au semestre d'hiver 2003-2004 en tant que directeur par intérim. Gundolf Keil est émérite depuis 2004. Son successeur à la chaire d'histoire de la médecine de l'Université de Wurtzbourg est Michael Stolberg (de) en 2004. Keil est membre de la Commission historique de Silésie (de).
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Travail scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'objectif scientifique de Keil est la recherche en prose médiévale et moderne[9]. Il publie de nombreuses publications, notamment dans les domaines de l'histoire de la médecine, de l'histoire des sciences, de l'histoire de la littérature et de la philologie classique. Depuis le début des années 1960, Keil est le « représentant le plus important » de la méthodologie philologique que Gerhard Eis introduit et établit dans l'histoire de la médecine[10].
-Avec le philologue et historien de la médecine Gerhard Baader, Keil partage des années d'activité de recherche, par exemple des recherches dans des bibliothèques françaises et anglaises et des archives italiennes, des éditions conjointes de prose spécialisée et la publication de l'ouvrage standard Médecine dans l'Occident médiéval en 1982[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'objectif scientifique de Keil est la recherche en prose médiévale et moderne. Il publie de nombreuses publications, notamment dans les domaines de l'histoire de la médecine, de l'histoire des sciences, de l'histoire de la littérature et de la philologie classique. Depuis le début des années 1960, Keil est le « représentant le plus important » de la méthodologie philologique que Gerhard Eis introduit et établit dans l'histoire de la médecine.
+Avec le philologue et historien de la médecine Gerhard Baader, Keil partage des années d'activité de recherche, par exemple des recherches dans des bibliothèques françaises et anglaises et des archives italiennes, des éditions conjointes de prose spécialisée et la publication de l'ouvrage standard Médecine dans l'Occident médiéval en 1982.
 À partir de 1975, Keil est l'éditeur de la série de monographies Würzburger medizinhistorische Forschungen (WmF) fondée en 1974, une série d'études de l'Institut d'histoire de la médecine, qui en 2009 compte 94 volumes. Michael Holler (1932-1996) est cofondateur et coéditeur de la WmF jusqu'à la publication du volume 66 en 1998. Josef Domes, Erhart Kahle, Peter Proff, Christoph Weißer et d'autres contribuent également à la publication.
-À partir de 1983, Gundolf Keil est également rédacteur en chef de Würzburger medizinhistorischen Mitteilungen (WmM), qui paraît en 30 volumes jusqu'en 2011[7]. Michael Holler est de nouveau cofondateur et coéditeur des 17 premiers volumes (1983-1998) de ce magazine[12],[13]. De plus, Keil est l'un des coéditeurs des Sudhoffs Archiv.
-Organisés par l'Institut d'histoire de la médecine de Wurtzbourg, les colloques médico-historiques de Wurtzbourg, qui sont documentés dans le WmM jusqu'au tome 25, ont lieu régulièrement jusqu'en 2005[14].
-Dans la continuité de la tradition du WmM, Keil est également (et, comme auparavant, honoraire) éditeur de Fachprosaforschung – Grenzüberschreitungen[15] (fondée par le Würzburger Fachprosakreis ; depuis 2015 : Medizinhistorische Mitteilungen. Zeitschrift für Wissenschaftsgeschichte und Fachprosaforschung)[16]. En 1993, Keil créé le Centre de recherche Wullstein pour la littérature médicale allemande du Moyen Âge à l'Université de Wurtzbourg. Avec l'aide de Franz-Christian Czygan (de), Keil créé le groupe de recherche "Médecine du monastère (de)" à l'Université de Wurtzbourg en 1999/2000, qui est converti en groupe de recherche non universitaire après le départ de Keil en 2010 remplacé par Johannes Gottfried Mayer (de)[17]. En 2000, il devient membre à part entière de la classe de sciences naturelles de l'Académie des sciences d'utilité publique d'Erfurt. En 2010, il est nommé membre à part entière de l'Académie allemande des sciences et des arts des Sudètes (de), classe de sciences naturelles.
-Selon ses propres déclarations, Keil supervise au moins 250 thèses[18]. Au semestre d'hiver 2012-2013, il offre deux séminaires en tant que professeur émérite à l'Université de Wurtzbourg[18].
+À partir de 1983, Gundolf Keil est également rédacteur en chef de Würzburger medizinhistorischen Mitteilungen (WmM), qui paraît en 30 volumes jusqu'en 2011. Michael Holler est de nouveau cofondateur et coéditeur des 17 premiers volumes (1983-1998) de ce magazine,. De plus, Keil est l'un des coéditeurs des Sudhoffs Archiv.
+Organisés par l'Institut d'histoire de la médecine de Wurtzbourg, les colloques médico-historiques de Wurtzbourg, qui sont documentés dans le WmM jusqu'au tome 25, ont lieu régulièrement jusqu'en 2005.
+Dans la continuité de la tradition du WmM, Keil est également (et, comme auparavant, honoraire) éditeur de Fachprosaforschung – Grenzüberschreitungen (fondée par le Würzburger Fachprosakreis ; depuis 2015 : Medizinhistorische Mitteilungen. Zeitschrift für Wissenschaftsgeschichte und Fachprosaforschung). En 1993, Keil créé le Centre de recherche Wullstein pour la littérature médicale allemande du Moyen Âge à l'Université de Wurtzbourg. Avec l'aide de Franz-Christian Czygan (de), Keil créé le groupe de recherche "Médecine du monastère (de)" à l'Université de Wurtzbourg en 1999/2000, qui est converti en groupe de recherche non universitaire après le départ de Keil en 2010 remplacé par Johannes Gottfried Mayer (de). En 2000, il devient membre à part entière de la classe de sciences naturelles de l'Académie des sciences d'utilité publique d'Erfurt. En 2010, il est nommé membre à part entière de l'Académie allemande des sciences et des arts des Sudètes (de), classe de sciences naturelles.
+Selon ses propres déclarations, Keil supervise au moins 250 thèses. Au semestre d'hiver 2012-2013, il offre deux séminaires en tant que professeur émérite à l'Université de Wurtzbourg.
 </t>
         </is>
       </c>
@@ -580,13 +596,15 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Président de la Société physico-médicale de Wurtzbourg (depuis 1974/75 et 1976)
-Membre du conseil d'administration (à partir de 1982) et président d'honneur (à partir de 2001) de la Würzburger medizinhistorischen Gesellschaft, fondée le 14 octobre 1982[19] avec son premier président Michael Holler[20] et qui a existé jusqu'en 2011[21]
-Coprésident (depuis 1982) et directeur général (1986 à 2009) de l'Institut Gerhard Möbus (de) de recherche sur la Silésie à l'université de Würzburg, fondé en 1982 et repris par l'université en tant qu'institut annexe en 1986[22] qui a fonctionné jusqu'en 2013[23],[12].
+Membre du conseil d'administration (à partir de 1982) et président d'honneur (à partir de 2001) de la Würzburger medizinhistorischen Gesellschaft, fondée le 14 octobre 1982 avec son premier président Michael Holler et qui a existé jusqu'en 2011
+Coprésident (depuis 1982) et directeur général (1986 à 2009) de l'Institut Gerhard Möbus (de) de recherche sur la Silésie à l'université de Würzburg, fondé en 1982 et repris par l'université en tant qu'institut annexe en 1986 qui a fonctionné jusqu'en 2013,.
 Membre (depuis 1986), Président du conseil d'administration (1991-2006), Vice-président (2006-2009) de la Fondation des œuvres culturelles de Silésie
-Directeur général de la Fondation académique nationale allemande[24].
+Directeur général de la Fondation académique nationale allemande.
 Membre ou Membre du conseil d'administration d'autres sociétés d'histoire scientifique nationales et étrangères.</t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix Scheffel (de) 1954
 1976 Admission à l'Ordre des Chevaliers du Saint-Sépulcre à Jérusalem
@@ -656,8 +676,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>en tant qu'auteur
-Die verworfenen Tage. In: Sudhoffs Archiv. Band 41, 1957, S. 27–58.
+          <t>en tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Die verworfenen Tage. In: Sudhoffs Archiv. Band 41, 1957, S. 27–58.
 Der Botensegen. Eine Anweisung zur Wasserweihe bei der Wundbehandlung. In: Medizinische Monatsschrift. 11, 1957, S. 541–543.
 Peter von Ulm und die Passauer Wundarznei. In: Ulm und Oberschwaben. Mitteilungen der Vereins für Kunst und Altertum in Ulm und Oberschwaben. Band 35, 1958, S. 139–157.
 Das Arzneibuch Ortolf von Baierland (de): Sein Umfang und sein Einfluß auf die „Cirurgia magistri Petri de Ulma“. In: Sudhoffs Archiv. Band 43, 1959, S. 20–60.
@@ -747,9 +772,43 @@
 Lanfrank von Mailand. Band 5 (1985), Sp. 560–572.
 Nikolaus von Polen (N. v. Böhmen) OP. Band 6 (1987), Sp. 1128–1133
 Ortolf von Baierland. Band 7 (1989), Sp. 67–82.
-Wonnecke, Johann. Band 10 (1999), Sp. 1421 f.
-En tant que co-auteur
-mit Gerhard Eis: Nachträge zum Verfasserlexikon. In: Studia neophilologica. Band 30, 1958, S. 232–250, Band 31, 1959, S. 219–242, Band 43, 1971, S. 377–429, und in Beiträge zur Geschichte der deutschen Sprache und Literatur. Band 83, (Tübingen) 1961/1962, S. 167–226.
+Wonnecke, Johann. Band 10 (1999), Sp. 1421 f.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gundolf_Keil</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gundolf_Keil</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En tant que co-auteur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>mit Gerhard Eis: Nachträge zum Verfasserlexikon. In: Studia neophilologica. Band 30, 1958, S. 232–250, Band 31, 1959, S. 219–242, Band 43, 1971, S. 377–429, und in Beiträge zur Geschichte der deutschen Sprache und Literatur. Band 83, (Tübingen) 1961/1962, S. 167–226.
 mit Wolfram Schmitt: Nachträge zum Verfasserlexikon. In: Studia neophilologica. Band 39, 1967, S. 80–107.
 mit Willy Louis Braekman: Die „Vlaamsche leringe van orinen“ in einer niederfränkischen Fassung des 14. Jahrhunderts. Randbemerkungen zur Gliederung des mittelalterlichen Harntraktats. In: Niederdeutsche Mitteilungen. Band 24, 1968, S. 75–125.
 mit Willy Louis Braekman: Fünf mittelniederländische Übersetzungen des „Antidotarium Nicolai (de)“. Untersuchungen zum pharmazeutischen Fachschrifttum der mittelalterlichen Niederlande. In: Sudhoffs Archiv Band 55, 1971, S. 257–320.
@@ -797,7 +856,65 @@
 mit Lenka Vaňková: Mesuë a jeho ‘Grabadin’. Standardní dílo středovĕké farmacie / Mesuë und sein ‘Grabadin’. Ein Standardwerk der mittelalterlichen Pharmazie. Edition – Übersetzung – Kommentar / Edice – Přzeklad – Komentař. Tilia, Šenov u Ostravy (Ostrava) 2005  (ISBN 80-7042-685-3).
 mit Bernhard Dietrich Haage, Wolfgang Wegner und Helga Haage-Naber: Deutsche Fachliteratur der Artes im Mittelalter. Berlin 2007 (= Grundlagen der Germanistik. Band 43).
 mit Immo Schild (Hrsg.): Sebald Mulner im ‘Ansbacher Arzneibuch’: ‘Wässertraktat’ – ‘Ölbuch’ – ‘Rezeptar’. In: Alfred Reichling (de) (Hrsg.): Organista et homo ductus. Festschrift Rudolf Walter zum 90. Geburtstag. Sankt Augustin 2008, S. 273–292.
-mit Hilde-Marie Groß: Die große Zeit schlesischer Fachliteratur – das 12. und 13.</t>
+mit Hilde-Marie Groß: Die große Zeit schlesischer Fachliteratur – das 12. und 13. Jahrhundert. Mit einem Ausblick bis 1500. In: Dan Gawrecki (Hrsg.): K periodizaci dějin sleszka. Sbornik z pracovního zasedáni v Opavě 11.–12. prosince 2007. Troppau 2008, S. 75–102.
+mit Christine Wolf: Chirurgische Fachprosa des 13. bis 15. Jahrhunderts in Schlesien, Nordmähren und Nordböhmen. In: Ralf G. Päsler, Dietrich Schmidtke (Hrsg.): Deutschsprachige Literatur des Mittelalters im östlichen Europa. Forschungsstand und Forschungsperspektiven. Heidelberg 2006, S. 383–426.
+mit Jörg Siegfried Kotsch: Das „Erlauer Frauenbüchlein“. Untersuchungen zu einem gynäkologischen Rezeptar aus dem spätmittelalterlichen Oberungarn. Text und Kommentar. In: Fachprosaforschung – Grenzüberschreitungen. Band 4/5, 2008/2009 (2010), S. 47–112.
+mit Christine Wolf: Die „Römische Chirurgie“. Anmerkungen zu einem schlesischen Arzneimittel-Handbuch aus dem spätmittelalterlichen Kloster Farfa. In: Mechthild Habermann (Hrsg.): Textsortentypologien und Textallianzen des 13. und 14. Jahrhunderts. Berlin 2011 (= Berliner sprachwissenschaftliche Studien. Band 22), S. 201–266.
+mit Christine Wolf: Acht Wundtrank-Rezepte aus der „Hübsch Chirurgia“ des Niklas von Mumpelier. In: Heinrich F. K. Männl, Rudolf Fritsch, Barbara Gießmann (Hrsg.): Forschungsbeiträge der Naturwissenschaftlichen Klasse (= Schriften der Sudetendeutschen Akademie der Wissenschaften und Künste. Band 31) München 2011, S. 55–80.
+mit Hilde-Marie Groß und Christine Wolf: Das ‘Breslauer Arzneibuch’ (13. Jh.) im ‘Olmützer medizinischen Kompendium’ (15. Jh.). Beobachtungen zur Kompilationsleittechnik anhand einiger Versatzstücke. In: Fachprosaforschung – Grenzüberschreitungen. Band 7, 2011, S. 27–27.
+mit Christoph Weißer: Heilkunde bei den Germanen. In: Heinrich Beck, Dieter Geuenich (de), Heiko Steuer (Hrsg.): Reallexikon der germanischen Altertumskunde. 2., völlig neu bearbeitete Auflage. Begründet von Heinrich Beck, Herbert Jankuhn, Hans Kuhn und Reinhard Wenskus. Redigiert von Rosemarie Müller, 35 Bände und 2 Registerbände. Berlin/ New York (1968–)1973–2008, hier: Ergänzungs-Band 77: Altertumskunde – Altertumswissenschaft – Kulturwissenschaft: Erträge und Perspektiven nach 40 Jahren Reallexikon der Germanischen Altertumskunde. Berlin/Boston 2012, S. 317–388.
+mit Jürgen Kiefer: Das ‘Erfurter Kartäuserregimen’. Anmerkungen zu Inhalt, Aufbau und Verfasserfrage einer klösterlichen Gesundheitslehre des 15. Jahrhunderts. In: Jürgen Kiefer (Hrsg.): Heilkunde und Heilmittel. Zu Erwerb und Transfer von medizinisch-pharmazeutischem Wissen in Europa. Festschrift Ingrid Kästner. Aachen 2013 (= Europäische Wissenschaftsbeziehungen. Band 5), S. 217–259.
+mit Rudolf Peitz: Die „Decem quaestiones de medicorum statu“. Beobachtungen zur ärztlichen Standeskunde des 14. und 15. Jahrhunderts. In: Fachprosaforschung – Grenzüberschreitungen. Band 8/9, 2012/2013 (2014), S. 283–297. Vgl. auch Rudolf Peitz, Gundolf Keil: Decem quaestiones de medicorum statu. Uwagi co do stanu lekarskiego w XIV i XV vieku. [englisch übersetzt … Comments on Physicians as a Social Class in the 14th and 15th Centuries.] In: Archiwum historii i foilozaofii medycyny. Band 77, 2014 (2015)  (ISBN 978-83-7654-385-7), S. 28–35.
+mit Christine Wolf: Das führende Kräuterbuch als transporter: Altdeutsche Fachprosa in Johann WONNECKES ‘Gart’. In: Ingrid Kästner u a. (Hrsg.): Erkunden, Sammeln, Notieren und Vermitteln – Wissenschaft im Gepäck von Handelsleuten, Diplomaten und Missionaren. Aachen 2014 (= Europäische Wissenschaftsbeziehungen. Band 7), S. 37–74.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gundolf_Keil</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gundolf_Keil</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>en tant qu'éditeur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>mit Ria Jansen-Sieben: Eine chirurgische Glossensammlung des frühen 14. Jahrhunderts. In: Zeitschrift für deutsche Wortforschung. Band 27, 1971, S. 129–146.
+mit Peter Assion: Fachprosaforschung. Acht Vorträge zur mittelalterlichen Artesliteratur. E. Schmidt, Berlin 1974  (ISBN 3-503-00743-1).
+Chirurgia magna Guidonis de Gauliaco, nunc demum suae primae integritati restituta à Laurentio Jouberto. Lyon 1585; Neudruck Darmstadt 1976; 2. Auflage ebenda 1980.
+„gelêrter der arzenîe, ouch apotêker“: Beiträge zur Wissenschaftsgeschichte. Festschrift Willem F. Daems (= Würzburger medizinhistorische Forschungen. Band 24). Wellm, Pattensen 1982  (ISBN 3-921456-35-5).
+mit Peter Assion, Willem Frans Daems und Heinz-Ulrich Röhl: Fachprosa-Studien. Beiträge zur mittelalterlichen Wissenschafts- und Geistesgeschichte. (Festschrift Gerhard Eis) E. Schmidt, Berlin 1982  (ISBN 3-503-01269-9).
+mit Gerhard Baader: Medizin im mittelalterlichen Abendland. Darmstadt 1982 (= Wege der Forschung. Band 363), S. 125–150.
+Vom Einfluss der Gestirne auf die Gesundheit und den Charakter des Menschen. Das „Iatromathematische Hausbuch“, dargestellt am Nürnberger Kodex Schürstab. Band 1: Faksimile, Band 2: Kommentar zur Faksimile-Ausgabe des Manuskriptes C 54 der Zentralbibliothek Zürich. Unter Mitwirkung von Friedrich Lenhardt und Christoph Weißer sowie einem Vorwort von Huldrych M. Koelbing, Faksimile-Verlag, Luzern/Wien/Berlin u. a. 1981–1983  (ISBN 3-85672-013-8).
+mit Rudolf Schmitz (de): Humanismus und Medizin. Acta humaniora, Weinheim 1984 (= Deutsche Forschungsgemeinschaft: Mitteilungen der Kommission für Humanismusforschung. Band 11)  (ISBN 3-527-17011-1).
+mit Gerhardt Nissen (de): Psychiatrie auf dem Wege zur Wissenschaft. Psychiatrie-historisches Symposium anläßlich des 90. Jahrestages der Eröffnung der „Psychiatrischen Klinik der Königlichen Universität Würzburg“. Stuttgart/ New York 1985.
+mit Lothar Bossle, Josef Joachim Menzel und Eberhard Günther Schulz: Schlesien als Aufgabe interdisziplinärer Forschung. Sigmaringen 1986 (= Schlesische Forschungen. Band 1).
+mit Redaktion durch Johannes G. Mayer und Christian Naser: „ein teutsch puech machen“. Untersuchungen zur landessprachlichen Vermittlung medizinischen Wissens (= Ortolf-Studien. Band 1). Reichert, Wiesbaden 1993 (= Wissensliteratur im Mittelalter. Schriften des Sonderforschungsbereichs 226 Würzburg/Eichstätt. Band 11)  (ISBN 3-88226-539-6).
+unter Mitwirkung von Josef Domes: Würzburger Fachprosa-Studien. Beiträge zur mittelalterlichen Medizin-, Pharmazie- und Standesgeschichte aus dem Würzburger Medizinhistorischen Institut. Festschrift für Michael Holler. (= Würzburger medizinhistorische Forschungen. Band 38). Königshausen &amp; Neumann, Würzburg 1995  (ISBN 3-8260-1113-9).
+mit Josef Joachim Menzel (Hrsg.): Anfänge und Entwicklung der deutschen Sprache im mittelalterlichen Schlesien. Verhandlungen des VIII. Symposions vom 2. bis 4. November in Würzburg 1989. Sigmaringen 1995 (= Schlesische Forschungen. Veröffentlichungen des Gerhard-Möbus-Instituts für Schlesienforschung an der Universität Würzburg. Band 6).
+mit Christoph Weißer (Schriftleiter) und Marianne Halbleib (Redaktion): Fachprosaforschung – Grenzüberschreitungen. Deutscher Wissenschafts-Verlag, Baden-Baden 2005 ff., 2015 weitergeführt im Zusammenwirken mit der Würzburger Wullstein-Forschungsstelle für deutsche Medizinliteratur des Mittelalters unter dem Titel Medizinhistorische Mitteilungen. Zeitschrift für Wissenschaftsgeschichte und Fachprosaforschung. (Deutscher Wissenschafts, Baden-Baden 2016  (ISBN 978-3-86888-118-9)).</t>
         </is>
       </c>
     </row>
